--- a/system/documentos/plantilla_ejemplo_upload_endosos.xlsx
+++ b/system/documentos/plantilla_ejemplo_upload_endosos.xlsx
@@ -19,11 +19,11 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="LicenciaTipo">DRIVERS!$F$2:$F$3</definedName>
+    <definedName name="LicenciaTipo">DRIVERS!#REF!</definedName>
     <definedName name="radius">#REF!</definedName>
     <definedName name="Radius_Lookup">[1]Lookups!$L$2:$L$7</definedName>
-    <definedName name="RadiusVehiculo">UNITS!$D$2:$D$3</definedName>
-    <definedName name="tipoVehiculo">UNITS!$E$2:$E$3</definedName>
+    <definedName name="RadiusVehiculo">UNITS!$E$2:$E$4</definedName>
+    <definedName name="tipoVehiculo">UNITS!$F$2:$F$3</definedName>
     <definedName name="TYPE" comment="TYPE OF LICENSE">DRIVERS!#REF!</definedName>
     <definedName name="types">#REF!</definedName>
     <definedName name="Veh_Types">[1]Lookups!$K$2:$K$4</definedName>
@@ -40,7 +40,7 @@
     <author>Celina</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,6 +161,54 @@
           </rPr>
           <t xml:space="preserve">
 - Insertar solo los valores disponibles.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Celina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en que se realizo el endoso</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Celina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Campo opcional para almacenar el no de endoso</t>
         </r>
       </text>
     </comment>
@@ -194,8 +242,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Campo Obligatorio: SI
-Tipo de Campo: ALFANUMERICO </t>
+Si se desea Agregar puede ser: ADD ó A
+Si se desea Eliminar puede ser: DELETE ó D</t>
         </r>
       </text>
     </comment>
@@ -207,7 +255,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Celina:</t>
         </r>
@@ -216,11 +264,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Campo obligatorio: SI
-Formato de Fecha: MM/DD/YYYY</t>
+- De preferencia debe comenzar primero por el last name.</t>
         </r>
       </text>
     </comment>
@@ -232,30 +279,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Celina:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Campo Obligatorio: SI
-Tipo de Campo: ALFANUMERICO</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+          <t>Celina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+MM/DD/YYYY</t>
         </r>
       </text>
     </comment>
@@ -267,7 +303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Celina:</t>
         </r>
@@ -276,63 +312,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Campo Obligatorio: NO
-Tipo de Campo: NUMERICO ENTERO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Campo Obligatorio: NO
-Tipo de Formato: MM/DD/YYYY</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Campo Obligatorio: NO
-Tipo de Campo: Solo acepta 2 valores,
-- COMMERCIAL/CDL-A
-- FEDERAL/B1</t>
+SIEMPRE DEBE IR COMO PRIMER COLUMNA EL NUMERO DE LICENCIA.</t>
         </r>
       </text>
     </comment>
@@ -341,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>YEAR</t>
   </si>
@@ -388,19 +371,31 @@
     <t>03150524</t>
   </si>
   <si>
+    <t>27038155</t>
+  </si>
+  <si>
+    <t>28724256</t>
+  </si>
+  <si>
+    <t>TAMP207090</t>
+  </si>
+  <si>
+    <t>NVOL024245</t>
+  </si>
+  <si>
+    <t>TAMP205281</t>
+  </si>
+  <si>
     <t>UNIT</t>
   </si>
   <si>
     <t>0-250</t>
   </si>
   <si>
+    <t>500+</t>
+  </si>
+  <si>
     <t>EXPIREDATE</t>
-  </si>
-  <si>
-    <t>COMMERCIAL/CDL-A</t>
-  </si>
-  <si>
-    <t>FEDERAL/B1</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -411,6 +406,30 @@
   </si>
   <si>
     <t>NOMBRE DE PRUEBA</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>APPLICATION DATE</t>
+  </si>
+  <si>
+    <t>END#</t>
+  </si>
+  <si>
+    <t>END 05</t>
   </si>
 </sst>
 </file>
@@ -476,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,11 +516,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -529,13 +594,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1904</xdr:rowOff>
@@ -951,88 +1016,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="2"/>
+    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
         <v>2002</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="G2" s="9">
+        <v>43221</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
         <v>2000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F5" t="s">
         <v>9</v>
+      </c>
+      <c r="G5" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>43221</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A2:D3">
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>$I2=1</formula>
+  <conditionalFormatting sqref="E2:E8 B5:D8">
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>$J2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>$J2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>$J2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>$J2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>$J8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8">
       <formula1>1990</formula1>
       <formula2>YEAR(NOW())+2</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
       <formula1>tipoVehiculo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
       <formula1>RadiusVehiculo</formula1>
     </dataValidation>
   </dataValidations>
@@ -1043,93 +1270,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="256" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="2"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
+    <col min="9" max="256" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22619</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>27663</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43221</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
+        <v>27663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>25914</v>
+      </c>
+      <c r="G3" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3">
+        <v>32319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32798</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23279</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3">
-        <v>22619</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>27663</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E6" s="2">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>28685</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3">
-        <v>27663</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>25914</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E7" s="2"/>
+      <c r="G7" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25896</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="9">
+        <v>43221</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
-      <formula1>LicenciaTipo</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3" numberStoredAsText="1"/>
+    <ignoredError sqref="D3:D5" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/system/documentos/plantilla_ejemplo_upload_endosos.xlsx
+++ b/system/documentos/plantilla_ejemplo_upload_endosos.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="UNITS" sheetId="2" r:id="rId1"/>
-    <sheet name="DRIVERS" sheetId="1" r:id="rId2"/>
+    <sheet name="DRIVERS" sheetId="1" r:id="rId1"/>
+    <sheet name="UNITS" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -22,8 +22,8 @@
     <definedName name="LicenciaTipo">DRIVERS!#REF!</definedName>
     <definedName name="radius">#REF!</definedName>
     <definedName name="Radius_Lookup">[1]Lookups!$L$2:$L$7</definedName>
-    <definedName name="RadiusVehiculo">UNITS!$E$2:$E$4</definedName>
-    <definedName name="tipoVehiculo">UNITS!$F$2:$F$3</definedName>
+    <definedName name="RadiusVehiculo">#REF!</definedName>
+    <definedName name="tipoVehiculo">#REF!</definedName>
     <definedName name="TYPE" comment="TYPE OF LICENSE">DRIVERS!#REF!</definedName>
     <definedName name="types">#REF!</definedName>
     <definedName name="Veh_Types">[1]Lookups!$K$2:$K$4</definedName>
@@ -40,31 +40,94 @@
     <author>Celina</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Insertar solo los valores disponibles:
+- ADD ó A (Para Agregar)
+- DELETE ó D (Para Eliminar)
+- ADDSWAP ó AS 
+- DELETESWAP ó DS
+* CAMPO OBLIGATORIO PARA EL SISTEMA
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- De preferencia debe comenzar primero por el last name.
+- No debe contener ningún caracter especial.
+- El sistema automaticamente lo convertira en Mayusculas.
+* CAMPO OBLIGATORIO PARA EL SISTEMA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Formato de fecha: MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Numero de Licencia del Conductor.
+- No debe contener caracteres especiales.
+</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
           <t xml:space="preserve">
-- Valor Numérico de 4 posiciones.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+* CAMPO OBLIGATORIO PARA EL SISTEMA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Valor Numerico Entero para marcar los años de experiencia.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,24 +135,96 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Formato de fecha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insertar solo los valores disponibles:
+- FEDERAL/B1
+- COMMERCIAL/CDL-A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Formato de fecha: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MM/DD/YYYY
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>* CAMPO OBLIGATORIO PARA EL SISTEMA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valor para Almacenar No. de Endoso para polizas de AL.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-- Valor de la casilla descripción o alias del catálogo de marcas del sistema.
-- Debe ser uno existente, en caso de ser nuevo deberá darse de alta primero en el sistema o la casilla se guardara como vaciá. (Ver archivo adjunto con catalogo)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+- Si varios Registros llevan el mismo numero de endoso, 
+  automaticamente se almacenaran como si se hubieran enviado juntos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,118 +232,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- SIEMPRE DEBE IR COMO PRIMER COLUMNA EL VIN NUMBER
-- Máximo 17 Dígitos.
-- Pueden ir o no ir en mayúsculas (El sistema los pasa siempre a Mayúsculas).
-- Este campo es obligatorio.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- Insertar solo los valores disponibles. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- Insertar solo los valores disponibles.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Fecha en que se realizo el endoso</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Campo opcional para almacenar el no de endoso</t>
+            <family val="2"/>
+          </rPr>
+          <t>Campo para Almacenar el valor monetario del Endoso para la poliza AL.</t>
         </r>
       </text>
     </comment>
@@ -226,12 +252,171 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Insertar solo los valores disponibles:
+- ADD ó A (Para Agregar)
+- DELETE ó D (Para Eliminar)
+- ADDSWAP ó AS 
+- DELETESWAP ó DS
+</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* CAMPO OBLIGATORIO PARA EL SISTEMA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Valor Numérico de 4 posiciones.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Valor de la casilla descripción o alias del catálogo de marcas del sistema.
+- Debe ser uno existente, en caso de ser nuevo deberá darse de alta primero en el sistema o la casilla se guardara como vaciá. (Ver archivo adjunto con catalogo)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Máximo 18 Dígitos.
+- Pueden ir o no ir en mayúsculas (</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>El sistema los pasa siempre a Mayúsculas).</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>* CAMPO OBLIGATORIO PARA EL SISTEMA.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insertar solo los valores disponibles:
+- 0-50
+- 0-250
+- 0-500
+- 500+
+Campo opcional (puede ir vacio).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insertar solo los valores disponibles:
+- TRACTOR
+- UNIT
+- TRAILER
+Campo opcional (puede ir vacio).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Campo para almacenar el valor $$ del vehiculo.
+- Campo opcional (puede ir vacio).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Celina:</t>
         </r>
         <r>
@@ -239,83 +424,39 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Si se desea Agregar puede ser: ADD ó A
-Si se desea Eliminar puede ser: DELETE ó D</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- De preferencia debe comenzar primero por el last name.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-MM/DD/YYYY</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-SIEMPRE DEBE IR COMO PRIMER COLUMNA EL NUMERO DE LICENCIA.</t>
+Formato de fecha: MM/DD/YYYY
+* CAMPO OBLIGATORIO PARA EL SISTEMA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Valor para Almacenar No. de Endoso para polizas de AL.
+- Si varios Registros llevan el mismo numero de endoso, 
+automaticamente se almacenaran como si se hubieran enviado juntos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Campo para Almacenar el valor monetario del Endoso para la poliza AL.</t>
         </r>
       </text>
     </comment>
@@ -324,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>YEAR</t>
   </si>
@@ -356,15 +497,6 @@
     <t>TRAILER</t>
   </si>
   <si>
-    <t>FREIGHTLINER</t>
-  </si>
-  <si>
-    <t>0-500</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL</t>
-  </si>
-  <si>
     <t>TAMP204053</t>
   </si>
   <si>
@@ -398,11 +530,10 @@
     <t>EXPIREDATE</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-TESTTESTTESTVIN01</t>
-  </si>
-  <si>
-    <t>TESTTESTTESTVIN01</t>
+    <t>COMMERCIAL/CDL-A</t>
+  </si>
+  <si>
+    <t>FEDERAL/B1</t>
   </si>
   <si>
     <t>NOMBRE DE PRUEBA</t>
@@ -423,24 +554,104 @@
     <t>D</t>
   </si>
   <si>
-    <t>APPLICATION DATE</t>
-  </si>
-  <si>
-    <t>END#</t>
-  </si>
-  <si>
     <t>END 05</t>
+  </si>
+  <si>
+    <t>END05</t>
+  </si>
+  <si>
+    <t>ADDSWAP</t>
+  </si>
+  <si>
+    <t>DELETE swap</t>
+  </si>
+  <si>
+    <t>END 03</t>
+  </si>
+  <si>
+    <t>END 02</t>
+  </si>
+  <si>
+    <t>END 01</t>
+  </si>
+  <si>
+    <t>APPLICATIONDATE</t>
+  </si>
+  <si>
+    <t>ENDAL#</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>ENDMTC#</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>ENDPD#</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTL </t>
+  </si>
+  <si>
+    <t>TRACTOR</t>
+  </si>
+  <si>
+    <t>FRHT</t>
+  </si>
+  <si>
+    <t>1FUJGLDR59LAE3522</t>
+  </si>
+  <si>
+    <t>INTL</t>
+  </si>
+  <si>
+    <t>3HSDJSR1RB386484</t>
+  </si>
+  <si>
+    <t>3HSDJSJR6BN386481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRHT </t>
+  </si>
+  <si>
+    <t>1FUJA6CV25LN44008</t>
+  </si>
+  <si>
+    <t>3HSDJSJR8BN386482</t>
+  </si>
+  <si>
+    <t>3HSCUAPR5AN193113</t>
+  </si>
+  <si>
+    <t>1FUJA6CV66LW45599</t>
+  </si>
+  <si>
+    <t>0-50</t>
+  </si>
+  <si>
+    <t>1HSDJSJR7dJ150296 </t>
+  </si>
+  <si>
+    <t>TOTALPREMIUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +685,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -495,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,20 +731,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -536,6 +760,52 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -556,6 +826,10 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -566,6 +840,38 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -578,7 +884,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="PivotTable Style 1" table="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,105 +896,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1904</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 4"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="0"/>
-          <a:ext cx="1076325" cy="1904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="45720" rIns="45720" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0" fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>IMPORTANT: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Do not remove the operator name when you change or delete</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When choosing the type of movement just enter the date in cell "from" to the history of the policy</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,264 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" style="2"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="9">
-        <v>43221</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="9">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="9">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2003</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9">
-        <v>43221</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <conditionalFormatting sqref="E2:E8 B5:D8">
-    <cfRule type="expression" dxfId="4" priority="14">
-      <formula>$J2=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="3" priority="13">
-      <formula>$J2=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
-    <cfRule type="expression" dxfId="2" priority="12">
-      <formula>$J2=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6">
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>$J2=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>$J8=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8">
-      <formula1>1990</formula1>
-      <formula2>YEAR(NOW())+2</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
-      <formula1>tipoVehiculo</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
-      <formula1>RadiusVehiculo</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,14 +1239,15 @@
     <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
-    <col min="9" max="256" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" customWidth="1"/>
+    <col min="10" max="257" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -1306,27 +1262,45 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>22619</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -1334,25 +1308,34 @@
       <c r="F2" s="3">
         <v>27663</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8">
         <v>43221</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9">
+        <v>5000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <v>27663</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1360,113 +1343,471 @@
       <c r="F3" s="3">
         <v>25914</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8">
         <v>43221</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>32319</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8">
         <v>43221</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>32798</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8">
         <v>43221</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>23279</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>17</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8">
         <v>43221</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>28685</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="9">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8">
         <v>43221</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>25896</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="9">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8">
         <v>43221</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
+      <formula1>LicenciaTipo</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D3:D5" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" customWidth="1"/>
+    <col min="10" max="14" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>43221</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9">
+        <v>5000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2500</v>
+      </c>
+      <c r="H3" s="8">
+        <v>43221</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="8">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="8">
+        <v>43221</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="8">
+        <v>43221</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8">
+        <v>43221</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$J2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:D9">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$M8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$M2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$M2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$M2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
+      <formula1>RadiusVehiculo</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>tipoVehiculo</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9">
+      <formula1>1990</formula1>
+      <formula2>YEAR(NOW())+2</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>